--- a/Tablas Relacionales (2).xlsx
+++ b/Tablas Relacionales (2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://siemens-my.sharepoint.com/personal/andres_richardson_siemens_com/Documents/Desktop/GRUPO_12_TRABAJO_INTEGRADOR/Grupo_12_Completar_Nombre/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC5F24AE-7184-4DD7-B969-80B3B7DD2822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="8_{BC5F24AE-7184-4DD7-B969-80B3B7DD2822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE2C4BB3-C203-4C6E-8C56-F3760A683F45}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="54">
   <si>
     <t>Users</t>
   </si>
@@ -126,9 +126,6 @@
     <t>quotesQuantity</t>
   </si>
   <si>
-    <t>updateData</t>
-  </si>
-  <si>
     <t>productsImages</t>
   </si>
   <si>
@@ -160,6 +157,33 @@
   </si>
   <si>
     <t>enum</t>
+  </si>
+  <si>
+    <t>Carts</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>qtyitems</t>
+  </si>
+  <si>
+    <t>deleteDate</t>
+  </si>
+  <si>
+    <t>sold</t>
+  </si>
+  <si>
+    <t>updateDate</t>
+  </si>
+  <si>
+    <t>updatedAt</t>
+  </si>
+  <si>
+    <t>createdAt</t>
+  </si>
+  <si>
+    <t>deletedAt</t>
   </si>
 </sst>
 </file>
@@ -213,7 +237,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -432,11 +456,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -449,7 +512,32 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -464,34 +552,23 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1838,6 +1915,618 @@
         <a:xfrm flipH="1">
           <a:off x="8441765" y="5707529"/>
           <a:ext cx="171825" cy="119533"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>37353</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>92691</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>627529</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104588</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="58 Conector recto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B31DCA0-58CC-4142-BD73-E15DCEEAC6D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12886765" y="481162"/>
+          <a:ext cx="590176" cy="11897"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>620059</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>119529</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>627577</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>37356</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="29 Conector recto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2DEFFF5-5A1A-4CDA-8AB6-E1FAE9F9B3C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13469471" y="508000"/>
+          <a:ext cx="7518" cy="485591"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>605119</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>59765</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>739588</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>70973</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="31 Conector recto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D123BE45-997D-4E25-B1FE-55172B6B596D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13454531" y="1016000"/>
+          <a:ext cx="134469" cy="11208"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>612588</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>97118</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>732117</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="31 Conector recto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{055D8572-16B4-4946-8048-221DD713EF54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="13462000" y="1053353"/>
+          <a:ext cx="119529" cy="29882"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>7471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>724647</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>52294</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="31 Conector recto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE6CBBA0-F56F-444F-BC66-0DBFEE2F7E74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13484412" y="963706"/>
+          <a:ext cx="89647" cy="44823"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>144930</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>58327</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>735106</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>70224</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="58 Conector recto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33518AE9-CECE-4B78-924A-37AAFE8FD254}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12994342" y="820327"/>
+          <a:ext cx="590176" cy="11897"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>174860</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>179294</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>82177</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="29 Conector recto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3479C040-E8CC-4B90-9BFA-3AE32F6B1C8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13024272" y="787400"/>
+          <a:ext cx="4434" cy="1394012"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>74706</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123956</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>216647</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="58 Conector recto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F28F084-3883-4F59-8B7C-7A0B4E9222A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4542118" y="2223191"/>
+          <a:ext cx="8523941" cy="10515"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>20966</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>80683</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>52294</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>141941</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="29 Conector recto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{351AB323-CD89-4423-BF8D-41CAD4E8BF1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4488378" y="1036918"/>
+          <a:ext cx="31328" cy="1204258"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>29882</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>7472</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>93382</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="31 Conector recto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F96B23E5-EA1F-4A71-84B1-48A87D1229E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2973294" y="941294"/>
+          <a:ext cx="1501590" cy="108323"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>627529</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>141941</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="31 Conector recto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{294BD57E-ECEF-4B09-BAF0-803E69702C32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13476941" y="717176"/>
+          <a:ext cx="134471" cy="67236"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>612588</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>82176</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>739588</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>119529</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="31 Conector recto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41395639-2D84-4705-82E3-203713141D1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="13462000" y="844176"/>
+          <a:ext cx="127000" cy="37353"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2187,8 +2876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:N10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2199,278 +2888,356 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="11"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="13" t="s">
+      <c r="F2" s="24"/>
+      <c r="G2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="20"/>
-      <c r="O2" s="21" t="s">
+      <c r="N2" s="19"/>
+      <c r="O2" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="R2" s="26"/>
+      <c r="S2" s="27" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="9" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" s="19" t="s">
+      <c r="G3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="20"/>
-      <c r="K3" s="21" t="s">
+      <c r="J3" s="19"/>
+      <c r="K3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="M3" s="9" t="s">
         <v>5</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="15" t="s">
-        <v>41</v>
+      <c r="O3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="R3" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" s="30" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4" s="14"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" s="14" t="s">
+      <c r="G4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="M4" s="14"/>
+      <c r="K4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="9"/>
       <c r="N4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="15" t="s">
-        <v>44</v>
+      <c r="O4" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="16" t="s">
+      <c r="C5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="17" t="s">
+      <c r="G5" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="M5" s="14"/>
+      <c r="K5" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" s="9"/>
       <c r="N5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O5" s="15" t="s">
-        <v>43</v>
+      <c r="O5" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S5" s="10" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A6" s="14"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="M6" s="14"/>
+      <c r="C6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6" s="9"/>
       <c r="N6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O6" s="15" t="s">
-        <v>43</v>
+      <c r="O6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S6" s="10" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="14"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="M7" s="14"/>
+      <c r="C7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="9"/>
       <c r="N7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="O7" s="15" t="s">
-        <v>43</v>
+      <c r="O7" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S7" s="10" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8" s="14"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="21" t="s">
+      <c r="C8" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="19"/>
+      <c r="J8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="M8" s="14"/>
+      <c r="M8" s="9"/>
       <c r="N8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O8" s="15" t="s">
+      <c r="O8" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S8" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="14" t="s">
+      <c r="C9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J9" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="M9" s="14"/>
+      <c r="J9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" s="9"/>
       <c r="N9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="15" t="s">
-        <v>43</v>
+      <c r="O9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S9" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="14"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="14"/>
+      <c r="C10" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="I10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="M10" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="N10" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" s="11"/>
+      <c r="N10" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="O10" s="23" t="s">
-        <v>45</v>
+      <c r="O10" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="S10" s="13" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="14"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="17" t="s">
+      <c r="C11" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="18" t="s">
-        <v>43</v>
+      <c r="J11" s="13" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A12" s="14"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>41</v>
+      <c r="C12" s="10" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>44</v>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A13" s="9"/>
+      <c r="B13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A14" s="9"/>
+      <c r="B14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="H16" s="19" t="s">
+      <c r="H16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="21" t="s">
+      <c r="I16" s="19"/>
+      <c r="J16" s="14" t="s">
         <v>26</v>
       </c>
       <c r="O16" t="s">
@@ -2480,24 +3247,24 @@
         <v>6</v>
       </c>
       <c r="Q16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="8:19" x14ac:dyDescent="0.35">
-      <c r="H17" s="14" t="s">
+      <c r="H17" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J17" s="15" t="s">
-        <v>41</v>
+      <c r="J17" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="O17" s="5">
         <v>1</v>
@@ -2516,12 +3283,14 @@
       </c>
     </row>
     <row r="18" spans="8:19" x14ac:dyDescent="0.35">
-      <c r="H18" s="14"/>
+      <c r="H18" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="I18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J18" s="15" t="s">
-        <v>41</v>
+        <v>36</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="O18" s="5">
         <v>2</v>
@@ -2540,12 +3309,12 @@
       </c>
     </row>
     <row r="19" spans="8:19" x14ac:dyDescent="0.35">
-      <c r="H19" s="14"/>
+      <c r="H19" s="9"/>
       <c r="I19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J19" s="22" t="s">
-        <v>41</v>
+      <c r="J19" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="O19" s="5">
         <v>3</v>
@@ -2564,12 +3333,12 @@
       </c>
     </row>
     <row r="20" spans="8:19" x14ac:dyDescent="0.35">
-      <c r="H20" s="14"/>
+      <c r="H20" s="9"/>
       <c r="I20" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J20" s="22" t="s">
-        <v>41</v>
+      <c r="J20" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="O20" s="5">
         <v>4</v>
@@ -2582,12 +3351,12 @@
       </c>
     </row>
     <row r="21" spans="8:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H21" s="16"/>
-      <c r="I21" s="17" t="s">
+      <c r="H21" s="11"/>
+      <c r="I21" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J21" s="23" t="s">
-        <v>41</v>
+      <c r="J21" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="O21" s="5"/>
       <c r="P21" s="5">
@@ -2609,95 +3378,96 @@
       </c>
     </row>
     <row r="23" spans="8:19" x14ac:dyDescent="0.35">
-      <c r="H23" s="19" t="s">
+      <c r="H23" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I23" s="20"/>
-      <c r="J23" s="21" t="s">
+      <c r="I23" s="19"/>
+      <c r="J23" s="14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="24" spans="8:19" x14ac:dyDescent="0.35">
-      <c r="H24" s="14" t="s">
+      <c r="H24" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J24" s="15" t="s">
-        <v>41</v>
+      <c r="J24" s="10" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="8:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H25" s="16"/>
-      <c r="I25" s="17" t="s">
+      <c r="H25" s="11"/>
+      <c r="I25" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="J25" s="18" t="s">
-        <v>43</v>
+      <c r="J25" s="13" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="8:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="27" spans="8:19" x14ac:dyDescent="0.35">
-      <c r="H27" s="19" t="s">
+      <c r="H27" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="20"/>
-      <c r="J27" s="21" t="s">
+      <c r="I27" s="19"/>
+      <c r="J27" s="14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="8:19" x14ac:dyDescent="0.35">
-      <c r="H28" s="14" t="s">
+      <c r="H28" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J28" s="15" t="s">
-        <v>41</v>
+      <c r="J28" s="10" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="8:19" x14ac:dyDescent="0.35">
-      <c r="H29" s="14"/>
+      <c r="H29" s="9"/>
       <c r="I29" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J29" s="15" t="s">
-        <v>43</v>
+      <c r="J29" s="10" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="8:19" x14ac:dyDescent="0.35">
-      <c r="H30" s="14"/>
+      <c r="H30" s="9"/>
       <c r="I30" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J30" s="22" t="s">
-        <v>42</v>
+        <v>38</v>
+      </c>
+      <c r="J30" s="15" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="8:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H31" s="16" t="s">
+      <c r="H31" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I31" s="24" t="s">
+      <c r="I31" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J31" s="16" t="s">
         <v>40</v>
-      </c>
-      <c r="J31" s="23" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="Q2:R2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="E2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Tablas Relacionales (2).xlsx
+++ b/Tablas Relacionales (2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://siemens-my.sharepoint.com/personal/andres_richardson_siemens_com/Documents/Desktop/GRUPO_12_TRABAJO_INTEGRADOR/Grupo_12_Completar_Nombre/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="8_{BC5F24AE-7184-4DD7-B969-80B3B7DD2822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE2C4BB3-C203-4C6E-8C56-F3760A683F45}"/>
+  <xr:revisionPtr revIDLastSave="181" documentId="8_{BC5F24AE-7184-4DD7-B969-80B3B7DD2822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72C749FE-736C-47C7-A249-D3813144EE1F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,13 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="54">
-  <si>
-    <t>Users</t>
-  </si>
-  <si>
-    <t>Products</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -54,27 +48,9 @@
     <t>FK</t>
   </si>
   <si>
-    <t>Categories</t>
-  </si>
-  <si>
-    <t>weigths</t>
-  </si>
-  <si>
-    <t>Brands</t>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Products-Brands</t>
-  </si>
-  <si>
     <t>brand_id</t>
   </si>
   <si>
-    <t>product_id</t>
-  </si>
-  <si>
     <t>Pivot</t>
   </si>
   <si>
@@ -96,18 +72,12 @@
     <t>image</t>
   </si>
   <si>
-    <t>creationDate</t>
-  </si>
-  <si>
     <t>userType</t>
   </si>
   <si>
     <t>type</t>
   </si>
   <si>
-    <t>costxkg</t>
-  </si>
-  <si>
     <t>quotesquantity</t>
   </si>
   <si>
@@ -126,9 +96,6 @@
     <t>quotesQuantity</t>
   </si>
   <si>
-    <t>productsImages</t>
-  </si>
-  <si>
     <t>wegth</t>
   </si>
   <si>
@@ -141,9 +108,6 @@
     <t>is by weight?</t>
   </si>
   <si>
-    <t>id_category</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -159,24 +123,15 @@
     <t>enum</t>
   </si>
   <si>
-    <t>Carts</t>
-  </si>
-  <si>
     <t>user_id</t>
   </si>
   <si>
     <t>qtyitems</t>
   </si>
   <si>
-    <t>deleteDate</t>
-  </si>
-  <si>
     <t>sold</t>
   </si>
   <si>
-    <t>updateDate</t>
-  </si>
-  <si>
     <t>updatedAt</t>
   </si>
   <si>
@@ -184,6 +139,42 @@
   </si>
   <si>
     <t>deletedAt</t>
+  </si>
+  <si>
+    <t>category_id</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>cost_x_bag</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>products_images</t>
+  </si>
+  <si>
+    <t>product_sku</t>
+  </si>
+  <si>
+    <t>brands</t>
+  </si>
+  <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t>carts</t>
+  </si>
+  <si>
+    <t>categories</t>
+  </si>
+  <si>
+    <t>products</t>
+  </si>
+  <si>
+    <t>products_brands</t>
   </si>
 </sst>
 </file>
@@ -237,7 +228,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -495,11 +486,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -533,20 +563,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -561,12 +589,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -591,22 +632,124 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>550383</xdr:colOff>
+      <xdr:colOff>587736</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>84089</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>23415</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>151510</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="7 Conector recto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="5817148" y="1802324"/>
+          <a:ext cx="197679" cy="67421"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>564808</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>76617</xdr:rowOff>
+      <xdr:rowOff>169544</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>748062</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>144038</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="7 Conector recto">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+      <xdr:colOff>745781</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>64772</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="8 Conector recto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="5794220" y="1701015"/>
+          <a:ext cx="180973" cy="81992"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>544625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>65868</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>735127</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>140210</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="14 Conector recto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -614,8 +757,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="5140968" y="1600617"/>
-          <a:ext cx="197679" cy="67421"/>
+          <a:off x="5774037" y="3315574"/>
+          <a:ext cx="190502" cy="74342"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -642,22 +785,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>549867</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>177015</xdr:rowOff>
+      <xdr:colOff>546951</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>162512</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>730840</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>72242</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="8 Conector recto">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+      <xdr:colOff>727924</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57739</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="15 Conector recto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -665,110 +808,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="5140452" y="1510515"/>
-          <a:ext cx="180973" cy="85727"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>529683</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>88280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>720185</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>162622</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="14 Conector recto">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="5120268" y="3517280"/>
-          <a:ext cx="190502" cy="74342"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>532009</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>184924</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>712982</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>80151</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="15 Conector recto">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="5122594" y="3423424"/>
-          <a:ext cx="180973" cy="85727"/>
+          <a:off x="5776363" y="3225453"/>
+          <a:ext cx="180973" cy="81992"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -852,9 +893,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>638736</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>100856</xdr:rowOff>
+      <xdr:colOff>657412</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>7470</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -869,8 +910,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3582148" y="1621118"/>
-          <a:ext cx="0" cy="3522385"/>
+          <a:off x="3582148" y="1651000"/>
+          <a:ext cx="18676" cy="5744882"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -897,15 +938,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>638735</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
+      <xdr:colOff>653676</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>11207</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>717248</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>104985</xdr:rowOff>
+      <xdr:colOff>732189</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>22809</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -920,8 +961,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2947147" y="5244353"/>
-          <a:ext cx="2364513" cy="4132"/>
+          <a:off x="3597088" y="7399619"/>
+          <a:ext cx="2364513" cy="11602"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -947,32 +988,83 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>717177</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>97119</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>7470</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>59767</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>74705</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>82178</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="54 Conector recto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8725646" y="7448179"/>
+          <a:ext cx="829235" cy="22411"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>22412</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>119530</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="55" name="54 Conector recto">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8389471" y="5700060"/>
-          <a:ext cx="829235" cy="22411"/>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>52294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>52295</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>37353</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="56 Conector recto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9502588" y="5363882"/>
+          <a:ext cx="29883" cy="2061883"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -999,66 +1091,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>720326</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>144085</xdr:rowOff>
+      <xdr:colOff>67235</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>67425</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>720913</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>134470</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="57" name="56 Conector recto">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="8506045" y="5088248"/>
-          <a:ext cx="1297738" cy="587"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>97118</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>127189</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>739588</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>127189</xdr:rowOff>
+      <xdr:colOff>709705</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>67425</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1073,7 +1114,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8531412" y="4422777"/>
+          <a:off x="8785411" y="5379013"/>
           <a:ext cx="642470" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1152,15 +1193,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>374930</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>389872</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>63313</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>746405</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>85728</xdr:rowOff>
+      <xdr:colOff>761347</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>63316</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1175,7 +1216,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3445342" y="3133725"/>
+          <a:off x="4095284" y="3313019"/>
           <a:ext cx="1895475" cy="3"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1203,15 +1244,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>224118</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>64191</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>3727</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
+      <xdr:colOff>216648</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>64192</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>758257</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1226,7 +1267,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2801471" y="1588191"/>
+          <a:off x="3160060" y="1782427"/>
           <a:ext cx="2827609" cy="3044"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1305,15 +1346,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>369000</xdr:colOff>
+      <xdr:colOff>366059</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>135265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>370588</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>79235</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1327,9 +1368,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="2784662" y="2201956"/>
-          <a:ext cx="1848970" cy="1588"/>
+        <a:xfrm flipH="1">
+          <a:off x="4071471" y="1285736"/>
+          <a:ext cx="4529" cy="2008793"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1356,15 +1397,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>246529</xdr:colOff>
+      <xdr:colOff>224117</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>36083</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>251180</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>78445</xdr:rowOff>
+      <xdr:colOff>251181</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1378,9 +1419,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="2519277" y="1293188"/>
-          <a:ext cx="613862" cy="4651"/>
+        <a:xfrm flipH="1">
+          <a:off x="3167529" y="999789"/>
+          <a:ext cx="27064" cy="808093"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1682,15 +1723,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>13939</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>102220</xdr:rowOff>
+      <xdr:colOff>194235</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>102291</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>3313</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>102291</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104588</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1704,9 +1745,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4604524" y="673720"/>
-          <a:ext cx="751374" cy="71"/>
+        <a:xfrm flipV="1">
+          <a:off x="6185647" y="490762"/>
+          <a:ext cx="571078" cy="2297"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1840,13 +1881,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>757445</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>32251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>185947</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>106593</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1890,15 +1931,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>7471</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>104588</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>29881</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>179296</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>37356</xdr:rowOff>
+      <xdr:colOff>171825</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>149414</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1913,7 +1954,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="8441765" y="5707529"/>
+          <a:off x="8718176" y="7418293"/>
           <a:ext cx="171825" cy="119533"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2253,9 +2294,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>179294</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>82177</xdr:rowOff>
+      <xdr:colOff>216647</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>97118</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2270,8 +2311,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13024272" y="787400"/>
-          <a:ext cx="4434" cy="1394012"/>
+          <a:off x="13024272" y="794871"/>
+          <a:ext cx="41787" cy="1984188"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2298,15 +2339,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>74706</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>123956</xdr:rowOff>
+      <xdr:colOff>82177</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>79133</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>216647</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>134471</xdr:rowOff>
+      <xdr:colOff>224118</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2321,7 +2362,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4542118" y="2223191"/>
+          <a:off x="4549589" y="2761074"/>
           <a:ext cx="8523941" cy="10515"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2355,9 +2396,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>52294</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>141941</xdr:rowOff>
+      <xdr:colOff>67235</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2372,8 +2413,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4488378" y="1036918"/>
-          <a:ext cx="31328" cy="1204258"/>
+          <a:off x="4488378" y="1044389"/>
+          <a:ext cx="46269" cy="1704787"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2532,6 +2573,61 @@
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="25400"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>141941</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>112058</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>216647</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>82177</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="58 Conector recto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE4A46F6-1335-4E0D-9CBF-E2C1D96BB063}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6133353" y="500529"/>
+          <a:ext cx="74706" cy="164354"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -2874,10 +2970,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2888,383 +2984,432 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E1" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="22"/>
+      <c r="E1" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="28"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E2" s="23" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="F2" s="24"/>
       <c r="G2" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="33"/>
+      <c r="K2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="26"/>
+      <c r="O2" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="R2" s="26"/>
+      <c r="S2" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="19"/>
-      <c r="O2" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q2" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="R2" s="26"/>
-      <c r="S2" s="27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="G3" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="19"/>
-      <c r="K3" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q3" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="R3" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="S3" s="30" t="s">
-        <v>40</v>
+        <v>28</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="20" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4" s="9"/>
-      <c r="B4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>43</v>
+      <c r="A4" s="18"/>
+      <c r="B4" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>42</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>5</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="I4" s="9"/>
       <c r="J4" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="M4" s="9"/>
       <c r="N4" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q4" s="9"/>
       <c r="R4" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="S4" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="10" t="s">
         <v>42</v>
       </c>
       <c r="M5" s="9"/>
       <c r="N5" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="9"/>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="13" t="s">
         <v>42</v>
       </c>
       <c r="M6" s="9"/>
       <c r="N6" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="S6" s="10" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="9"/>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="M7" s="9"/>
       <c r="N7" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="Q7" s="9"/>
       <c r="R7" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="9"/>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="14" t="s">
-        <v>26</v>
+        <v>30</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="26"/>
+      <c r="J8" s="17" t="s">
+        <v>17</v>
       </c>
       <c r="M8" s="9"/>
       <c r="N8" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="Q8" s="9"/>
       <c r="R8" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="S8" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>40</v>
+        <v>28</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="9"/>
       <c r="R9" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="S9" s="10" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="9"/>
       <c r="B10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="9"/>
+      <c r="N10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O10" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="M10" s="11"/>
-      <c r="N10" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="O10" s="16" t="s">
-        <v>44</v>
       </c>
       <c r="Q10" s="11"/>
       <c r="R10" s="12" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="S10" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
       <c r="B11" s="7" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="9"/>
+      <c r="N11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O11" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="9"/>
       <c r="B12" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>40</v>
+        <v>28</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="M12" s="11"/>
+      <c r="N12" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="O12" s="13" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="9"/>
       <c r="B13" s="1" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>43</v>
+        <v>31</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A14" s="9"/>
-      <c r="B14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>43</v>
+    <row r="14" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="H16" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" s="19"/>
+      <c r="H16" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="22"/>
       <c r="J16" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="O16" t="s">
+        <v>0</v>
+      </c>
+      <c r="P16" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>24</v>
+      </c>
+      <c r="R16" t="s">
         <v>26</v>
       </c>
-      <c r="O16" t="s">
-        <v>2</v>
-      </c>
-      <c r="P16" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>35</v>
-      </c>
-      <c r="R16" t="s">
-        <v>37</v>
-      </c>
       <c r="S16" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="8:19" x14ac:dyDescent="0.35">
       <c r="H17" s="9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="O17" s="5">
         <v>1</v>
@@ -3284,13 +3429,13 @@
     </row>
     <row r="18" spans="8:19" x14ac:dyDescent="0.35">
       <c r="H18" s="9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="O18" s="5">
         <v>2</v>
@@ -3311,10 +3456,10 @@
     <row r="19" spans="8:19" x14ac:dyDescent="0.35">
       <c r="H19" s="9"/>
       <c r="I19" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="O19" s="5">
         <v>3</v>
@@ -3335,10 +3480,10 @@
     <row r="20" spans="8:19" x14ac:dyDescent="0.35">
       <c r="H20" s="9"/>
       <c r="I20" s="4" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="O20" s="5">
         <v>4</v>
@@ -3353,10 +3498,10 @@
     <row r="21" spans="8:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="H21" s="11"/>
       <c r="I21" s="12" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J21" s="16" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="O21" s="5"/>
       <c r="P21" s="5">
@@ -3366,7 +3511,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="8:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="8:19" x14ac:dyDescent="0.35">
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="O22" s="5"/>
@@ -3377,97 +3522,151 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="8:19" x14ac:dyDescent="0.35">
-      <c r="H23" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="I23" s="19"/>
-      <c r="J23" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="8:19" x14ac:dyDescent="0.35">
-      <c r="H24" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="8:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H25" s="11"/>
-      <c r="I25" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="8:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="27" spans="8:19" x14ac:dyDescent="0.35">
-      <c r="H27" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="I27" s="19"/>
-      <c r="J27" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="8:19" x14ac:dyDescent="0.35">
-      <c r="H28" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J28" s="10" t="s">
-        <v>40</v>
+    <row r="27" spans="8:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="8:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H28" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="I28" s="26"/>
+      <c r="J28" s="17" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="8:19" x14ac:dyDescent="0.35">
-      <c r="H29" s="9"/>
-      <c r="I29" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J29" s="10" t="s">
-        <v>42</v>
+      <c r="H29" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J29" s="20" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="8:19" x14ac:dyDescent="0.35">
       <c r="H30" s="9"/>
-      <c r="I30" s="2" t="s">
+      <c r="I30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="8:19" x14ac:dyDescent="0.35">
+      <c r="H31" s="9"/>
+      <c r="I31" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J30" s="15" t="s">
-        <v>41</v>
+      <c r="J31" s="10" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="31" spans="8:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H31" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I31" s="17" t="s">
+    <row r="32" spans="8:19" x14ac:dyDescent="0.35">
+      <c r="H32" s="9"/>
+      <c r="I32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="8:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H33" s="11"/>
+      <c r="I33" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="8:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="36" spans="8:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H36" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" s="31"/>
+      <c r="J36" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="8:10" x14ac:dyDescent="0.35">
+      <c r="H37" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I37" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J37" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="8:10" x14ac:dyDescent="0.35">
+      <c r="H38" s="9"/>
+      <c r="I38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J38" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="8:10" x14ac:dyDescent="0.35">
+      <c r="H39" s="9"/>
+      <c r="I39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J39" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="8:10" x14ac:dyDescent="0.35">
+      <c r="H40" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I40" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J31" s="16" t="s">
-        <v>40</v>
+      <c r="J40" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="8:10" x14ac:dyDescent="0.35">
+      <c r="H41" s="9"/>
+      <c r="I41" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J41" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="8:10" x14ac:dyDescent="0.35">
+      <c r="H42" s="9"/>
+      <c r="I42" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J42" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="8:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H43" s="11"/>
+      <c r="I43" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J43" s="10" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="Q2:R2"/>
+  <mergeCells count="9">
+    <mergeCell ref="H36:I36"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="Q2:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
